--- a/cifar-10_exp/curve_results/resnet18-epoch70-hardlearn0.667/run_.-tag-meta_test_accuarcy.xlsx
+++ b/cifar-10_exp/curve_results/resnet18-epoch70-hardlearn0.667/run_.-tag-meta_test_accuarcy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yangsen\ysstronger\pose\github-ys\MetaBatch\cifar-10_exp\curve_results\resnet18-epoch70-hardlearn0.667\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B844A1E3-E566-4411-90FD-03B07D34C319}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AFCE6-F9A3-49B3-8211-A3B15160F76E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_.-tag-meta_test_accuarcy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1830,7 +1830,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1853,8 +1853,9 @@
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2623,8 +2624,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -2950,11 +2951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/cifar-10_exp/curve_results/resnet18-epoch70-hardlearn0.667/run_.-tag-meta_test_accuarcy.xlsx
+++ b/cifar-10_exp/curve_results/resnet18-epoch70-hardlearn0.667/run_.-tag-meta_test_accuarcy.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yangsen\ysstronger\pose\github-ys\MetaBatch\cifar-10_exp\curve_results\resnet18-epoch70-hardlearn0.667\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AFCE6-F9A3-49B3-8211-A3B15160F76E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE5C74-CEC5-471F-B866-7302008230AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_.-tag-meta_test_accuarcy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Wall time</t>
   </si>
@@ -28,11 +28,27 @@
     <t>Step</t>
   </si>
   <si>
-    <t>meta_test_accuracy</t>
+    <t>test</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>test_accuracy</t>
+    <t>test_randY=0.3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_test_randY=0.3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_test_randY=0.7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_randY=0.7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_test</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -677,6 +693,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEA0AD5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -709,7 +730,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -722,12 +743,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="en-US"/>
+              <a:t>ResNet18-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
               <a:t>测试准确率对比</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35265874217645876"/>
+          <c:y val="1.9305019305019305E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -741,7 +774,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -764,10 +797,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.1715004648198697E-2"/>
-          <c:y val="9.1046824836173393E-2"/>
-          <c:w val="0.8957689894520382"/>
-          <c:h val="0.81630799979324242"/>
+          <c:x val="0.11478798647360093"/>
+          <c:y val="0.13982686285835891"/>
+          <c:w val="0.85626902388152049"/>
+          <c:h val="0.75540236524488491"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -782,15 +815,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meta_test_accuracy</c:v>
+                  <c:v>meta_test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1253,15 +1286,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>test_accuracy</c:v>
+                  <c:v>test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1715,6 +1748,1911 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_randY=0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7E11-4477-BA55-53A52463B610}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$E$2:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>46.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.889999389648395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.930000305175696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.860000610351506</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.910003662109304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.849998474121094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.839996337890597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.389999389648395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.620002746582003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.800003051757798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.610000610351506</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.410003662109304</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.279998779296804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.940002441406193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.489997863769503</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.660003662109304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.279998779296804</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.680000305175696</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.019996643066406</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.779998779296804</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71.480003356933594</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71.319999694824205</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71.690002441406193</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71.769996643066406</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71.949996948242102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.180000305175696</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>70.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70.660003662109304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71.639999389648395</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71.940002441406193</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.089996337890597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.889999389648395</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>70.989997863769503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71.620002746582003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.949996948242102</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.839996337890597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71.650001525878906</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72.279998779296804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E11-4477-BA55-53A52463B610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meta_test_randY=0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$F$2:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>45.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.680000305175696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.099998474121094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.230003356933594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.599998474121094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.819999694824205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.180000305175696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.389999389648395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.389999389648395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.489997863769503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.360000610351506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.769996643066406</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.620002746582003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.180000305175696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.650001525878906</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.940002441406193</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.360000610351506</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.129997253417898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.510002136230398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.050003051757798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.699996948242102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.690002441406193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.730003356933594</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.019996643066406</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.870002746582003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.010002136230398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.129997253417898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71.430000305175696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.559997558593693</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.610000610351506</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70.069999694824205</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70.900001525878906</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70.839996337890597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70.860000610351506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.360000610351506</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71.339996337890597</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71.089996337890597</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.519996643066406</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.849998474121094</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.980003356933594</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71.860000610351506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E11-4477-BA55-53A52463B610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meta_test_randY=0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$G$2:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>28.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.550003051757798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65.370002746582003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.940002441406193</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.730003356933594</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.779998779296804</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.400001525878906</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66.949996948242102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67.110000610351506</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.319999694824205</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.930000305175696</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67.370002746582003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.589996337890597</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.730003356933594</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>67.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67.680000305175696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68.099998474121094</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67.589996337890597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.620002746582003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.650001525878906</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68.860000610351506</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69.230003356933594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7E11-4477-BA55-53A52463B610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_randY=0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="EA0AD5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'run_.-tag-meta_test_accuarcy'!$H$2:$H$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>32.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.389999389648402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.319999694824205</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.449996948242102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.550003051757798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.809997558593693</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.879997253417898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.190002441406193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.730003356933594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.010002136230398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.860000610351506</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.529998779296804</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.029998779296804</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67.529998779296804</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67.690002441406193</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.610000610351506</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.360000610351506</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66.629997253417898</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.550003051757798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>68.529998779296804</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68.900001525878906</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.529998779296804</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>68.589996337890597</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.050003051757798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.230003356933594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.050003051757798</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68.099998474121094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7E11-4477-BA55-53A52463B610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1726,12 +3664,7 @@
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1755,7 +3688,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1768,10 +3701,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>epoch</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1779,8 +3712,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.48893400214835475"/>
-              <c:y val="0.9372536857400483"/>
+              <c:x val="0.4738374415154627"/>
+              <c:y val="0.94688756391000251"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1796,7 +3729,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1830,11 +3763,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1887,7 +3820,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1900,10 +3833,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>test_accuracy/%</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1920,7 +3853,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1952,7 +3885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1986,10 +3919,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6807260716315342"/>
-          <c:y val="0.32304513631638498"/>
-          <c:w val="0.26830486927557085"/>
-          <c:h val="0.14955173819902709"/>
+          <c:x val="0.58423487360132609"/>
+          <c:y val="0.33205410134543994"/>
+          <c:w val="0.3343597324210878"/>
+          <c:h val="0.48749632647270441"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2005,7 +3938,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2045,7 +3978,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -2618,16 +4551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2952,19 +4885,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,13 +4908,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1539605615.09834</v>
       </c>
@@ -2991,8 +4939,20 @@
       <c r="D2">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>46.189998626708899</v>
+      </c>
+      <c r="F2">
+        <v>45.650001525878899</v>
+      </c>
+      <c r="G2">
+        <v>28.879999160766602</v>
+      </c>
+      <c r="H2">
+        <v>32.319999694824197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1539605789.5624101</v>
       </c>
@@ -3005,8 +4965,20 @@
       <c r="D3">
         <v>60.529998779296797</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>52.450000762939403</v>
+      </c>
+      <c r="F3">
+        <v>53.130001068115199</v>
+      </c>
+      <c r="G3">
+        <v>38.369998931884702</v>
+      </c>
+      <c r="H3">
+        <v>36.209999084472599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1539605969.99277</v>
       </c>
@@ -3019,8 +4991,20 @@
       <c r="D4">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>55.470001220703097</v>
+      </c>
+      <c r="F4">
+        <v>58.290000915527301</v>
+      </c>
+      <c r="G4">
+        <v>37.069999694824197</v>
+      </c>
+      <c r="H4">
+        <v>42.319999694824197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1539606142.8108699</v>
       </c>
@@ -3033,8 +5017,20 @@
       <c r="D5">
         <v>66.019996643066406</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>59.770000457763601</v>
+      </c>
+      <c r="F5">
+        <v>56.709999084472599</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>41.909999847412102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1539606316.9070699</v>
       </c>
@@ -3047,8 +5043,20 @@
       <c r="D6">
         <v>68.069999694824205</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>61.110000610351499</v>
+      </c>
+      <c r="F6">
+        <v>58.610000610351499</v>
+      </c>
+      <c r="G6">
+        <v>42.279998779296797</v>
+      </c>
+      <c r="H6">
+        <v>46.7299995422363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1539606490.5969901</v>
       </c>
@@ -3061,8 +5069,20 @@
       <c r="D7">
         <v>69.069999694824205</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>62.4799995422363</v>
+      </c>
+      <c r="F7">
+        <v>63.150001525878899</v>
+      </c>
+      <c r="G7">
+        <v>45.569999694824197</v>
+      </c>
+      <c r="H7">
+        <v>49.950000762939403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1539606664.93101</v>
       </c>
@@ -3075,8 +5095,20 @@
       <c r="D8">
         <v>68.790000915527301</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>64.169998168945298</v>
+      </c>
+      <c r="F8">
+        <v>65.959999084472599</v>
+      </c>
+      <c r="G8">
+        <v>44.4799995422363</v>
+      </c>
+      <c r="H8">
+        <v>49.470001220703097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1539606838.7541201</v>
       </c>
@@ -3089,8 +5121,20 @@
       <c r="D9">
         <v>70.239997863769503</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>65.889999389648395</v>
+      </c>
+      <c r="F9">
+        <v>65.680000305175696</v>
+      </c>
+      <c r="G9">
+        <v>44.590000152587798</v>
+      </c>
+      <c r="H9">
+        <v>52.209999084472599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1539607014.20136</v>
       </c>
@@ -3103,8 +5147,20 @@
       <c r="D10">
         <v>68.440002441406193</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>64.930000305175696</v>
+      </c>
+      <c r="F10">
+        <v>68.139999389648395</v>
+      </c>
+      <c r="G10">
+        <v>49.360000610351499</v>
+      </c>
+      <c r="H10">
+        <v>52.139999389648402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1539607190.2616401</v>
       </c>
@@ -3117,8 +5173,20 @@
       <c r="D11">
         <v>67.980003356933594</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>66.459999084472599</v>
+      </c>
+      <c r="F11">
+        <v>68.099998474121094</v>
+      </c>
+      <c r="G11">
+        <v>50.200000762939403</v>
+      </c>
+      <c r="H11">
+        <v>54.779998779296797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1539607366.3289199</v>
       </c>
@@ -3131,8 +5199,20 @@
       <c r="D12">
         <v>70.160003662109304</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>66.709999084472599</v>
+      </c>
+      <c r="F12">
+        <v>69.230003356933594</v>
+      </c>
+      <c r="G12">
+        <v>49.880001068115199</v>
+      </c>
+      <c r="H12">
+        <v>56.180000305175703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1539607541.5211401</v>
       </c>
@@ -3145,8 +5225,20 @@
       <c r="D13">
         <v>70.029998779296804</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>68.040000915527301</v>
+      </c>
+      <c r="F13">
+        <v>68.599998474121094</v>
+      </c>
+      <c r="G13">
+        <v>52.75</v>
+      </c>
+      <c r="H13">
+        <v>55.389999389648402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1539607717.74699</v>
       </c>
@@ -3159,8 +5251,20 @@
       <c r="D14">
         <v>70.410003662109304</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>68.860000610351506</v>
+      </c>
+      <c r="F14">
+        <v>68.830001831054602</v>
+      </c>
+      <c r="G14">
+        <v>50.259998321533203</v>
+      </c>
+      <c r="H14">
+        <v>56.799999237060497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1539607893.5542901</v>
       </c>
@@ -3173,8 +5277,20 @@
       <c r="D15">
         <v>70.879997253417898</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>69.080001831054602</v>
+      </c>
+      <c r="F15">
+        <v>69.819999694824205</v>
+      </c>
+      <c r="G15">
+        <v>52.330001831054602</v>
+      </c>
+      <c r="H15">
+        <v>57.740001678466797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1539608070.49226</v>
       </c>
@@ -3187,8 +5303,20 @@
       <c r="D16">
         <v>70.709999084472599</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>67.910003662109304</v>
+      </c>
+      <c r="F16">
+        <v>69.180000305175696</v>
+      </c>
+      <c r="G16">
+        <v>52.779998779296797</v>
+      </c>
+      <c r="H16">
+        <v>55.810001373291001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1539608246.2186401</v>
       </c>
@@ -3201,8 +5329,20 @@
       <c r="D17">
         <v>71.559997558593693</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>69.470001220703097</v>
+      </c>
+      <c r="F17">
+        <v>68.389999389648395</v>
+      </c>
+      <c r="G17">
+        <v>54.400001525878899</v>
+      </c>
+      <c r="H17">
+        <v>58.900001525878899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1539608422.42431</v>
       </c>
@@ -3215,8 +5355,20 @@
       <c r="D18">
         <v>70.949996948242102</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>70.849998474121094</v>
+      </c>
+      <c r="F18">
+        <v>69.389999389648395</v>
+      </c>
+      <c r="G18">
+        <v>55.099998474121001</v>
+      </c>
+      <c r="H18">
+        <v>59.580001831054602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1539608598.27724</v>
       </c>
@@ -3229,8 +5381,20 @@
       <c r="D19">
         <v>70.580001831054602</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>68.839996337890597</v>
+      </c>
+      <c r="F19">
+        <v>69.379997253417898</v>
+      </c>
+      <c r="G19">
+        <v>56.75</v>
+      </c>
+      <c r="H19">
+        <v>58.599998474121001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1539608773.9349201</v>
       </c>
@@ -3243,8 +5407,20 @@
       <c r="D20">
         <v>71.180000305175696</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>69.389999389648395</v>
+      </c>
+      <c r="F20">
+        <v>69.139999389648395</v>
+      </c>
+      <c r="G20">
+        <v>56.680000305175703</v>
+      </c>
+      <c r="H20">
+        <v>59.990001678466797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1539608949.21067</v>
       </c>
@@ -3257,8 +5433,20 @@
       <c r="D21">
         <v>71.370002746582003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>68.709999084472599</v>
+      </c>
+      <c r="F21">
+        <v>69.489997863769503</v>
+      </c>
+      <c r="G21">
+        <v>55.659999847412102</v>
+      </c>
+      <c r="H21">
+        <v>59.930000305175703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1539609124.7239599</v>
       </c>
@@ -3271,8 +5459,20 @@
       <c r="D22">
         <v>71.199996948242102</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>70.239997863769503</v>
+      </c>
+      <c r="F22">
+        <v>70.360000610351506</v>
+      </c>
+      <c r="G22">
+        <v>58.240001678466797</v>
+      </c>
+      <c r="H22">
+        <v>61.849998474121001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1539609300.6052899</v>
       </c>
@@ -3285,8 +5485,20 @@
       <c r="D23">
         <v>71.209999084472599</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>69.139999389648395</v>
+      </c>
+      <c r="F23">
+        <v>70.239997863769503</v>
+      </c>
+      <c r="G23">
+        <v>58.740001678466797</v>
+      </c>
+      <c r="H23">
+        <v>61.049999237060497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1539609477.0225799</v>
       </c>
@@ -3299,8 +5511,20 @@
       <c r="D24">
         <v>71.169998168945298</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>69.959999084472599</v>
+      </c>
+      <c r="F24">
+        <v>70.169998168945298</v>
+      </c>
+      <c r="G24">
+        <v>56.709999084472599</v>
+      </c>
+      <c r="H24">
+        <v>61.259998321533203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1539609653.04846</v>
       </c>
@@ -3313,8 +5537,20 @@
       <c r="D25">
         <v>70.870002746582003</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>69.620002746582003</v>
+      </c>
+      <c r="F25">
+        <v>69.769996643066406</v>
+      </c>
+      <c r="G25">
+        <v>58.930000305175703</v>
+      </c>
+      <c r="H25">
+        <v>62.490001678466797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1539609828.87621</v>
       </c>
@@ -3327,8 +5563,20 @@
       <c r="D26">
         <v>71.050003051757798</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>69.800003051757798</v>
+      </c>
+      <c r="F26">
+        <v>69.620002746582003</v>
+      </c>
+      <c r="G26">
+        <v>59.889999389648402</v>
+      </c>
+      <c r="H26">
+        <v>60.549999237060497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1539610007.9056201</v>
       </c>
@@ -3341,8 +5589,20 @@
       <c r="D27">
         <v>71.489997863769503</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>68.739997863769503</v>
+      </c>
+      <c r="F27">
+        <v>69.720001220703097</v>
+      </c>
+      <c r="G27">
+        <v>59.349998474121001</v>
+      </c>
+      <c r="H27">
+        <v>61.659999847412102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1539610183.3081501</v>
       </c>
@@ -3355,8 +5615,20 @@
       <c r="D28">
         <v>71.309997558593693</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>70.419998168945298</v>
+      </c>
+      <c r="F28">
+        <v>69.669998168945298</v>
+      </c>
+      <c r="G28">
+        <v>60.439998626708899</v>
+      </c>
+      <c r="H28">
+        <v>63.990001678466797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1539610361.4980299</v>
       </c>
@@ -3369,8 +5641,20 @@
       <c r="D29">
         <v>71.690002441406193</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>69.610000610351506</v>
+      </c>
+      <c r="F29">
+        <v>69.180000305175696</v>
+      </c>
+      <c r="G29">
+        <v>58.819999694824197</v>
+      </c>
+      <c r="H29">
+        <v>64.830001831054602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1539610545.3589001</v>
       </c>
@@ -3383,8 +5667,20 @@
       <c r="D30">
         <v>71.110000610351506</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>69.470001220703097</v>
+      </c>
+      <c r="F30">
+        <v>70.650001525878906</v>
+      </c>
+      <c r="G30">
+        <v>61.950000762939403</v>
+      </c>
+      <c r="H30">
+        <v>64.459999084472599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1539610730.9688699</v>
       </c>
@@ -3397,8 +5693,20 @@
       <c r="D31">
         <v>71.949996948242102</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>70.410003662109304</v>
+      </c>
+      <c r="F31">
+        <v>70.379997253417898</v>
+      </c>
+      <c r="G31">
+        <v>62.2299995422363</v>
+      </c>
+      <c r="H31">
+        <v>65.319999694824205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1539610904.84499</v>
       </c>
@@ -3411,8 +5719,20 @@
       <c r="D32">
         <v>71.040000915527301</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>70.279998779296804</v>
+      </c>
+      <c r="F32">
+        <v>69.940002441406193</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>65.449996948242102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1539611080.5099599</v>
       </c>
@@ -3425,8 +5745,20 @@
       <c r="D33">
         <v>71.709999084472599</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>70.459999084472599</v>
+      </c>
+      <c r="F33">
+        <v>70.239997863769503</v>
+      </c>
+      <c r="G33">
+        <v>62.419998168945298</v>
+      </c>
+      <c r="H33">
+        <v>65.220001220703097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1539611254.5831699</v>
       </c>
@@ -3439,8 +5771,20 @@
       <c r="D34">
         <v>71.790000915527301</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>70.940002441406193</v>
+      </c>
+      <c r="F34">
+        <v>70.360000610351506</v>
+      </c>
+      <c r="G34">
+        <v>62.720001220703097</v>
+      </c>
+      <c r="H34">
+        <v>65.550003051757798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1539611428.19839</v>
       </c>
@@ -3453,8 +5797,20 @@
       <c r="D35">
         <v>71.089996337890597</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>70.489997863769503</v>
+      </c>
+      <c r="F35">
+        <v>70.470001220703097</v>
+      </c>
+      <c r="G35">
+        <v>62.810001373291001</v>
+      </c>
+      <c r="H35">
+        <v>65.290000915527301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1539611602.63095</v>
       </c>
@@ -3467,8 +5823,20 @@
       <c r="D36">
         <v>72.010002136230398</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>70.660003662109304</v>
+      </c>
+      <c r="F36">
+        <v>71.129997253417898</v>
+      </c>
+      <c r="G36">
+        <v>63.310001373291001</v>
+      </c>
+      <c r="H36">
+        <v>64.809997558593693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1539611776.6180301</v>
       </c>
@@ -3481,8 +5849,20 @@
       <c r="D37">
         <v>72.059997558593693</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>71.059997558593693</v>
+      </c>
+      <c r="F37">
+        <v>70.510002136230398</v>
+      </c>
+      <c r="G37">
+        <v>63.450000762939403</v>
+      </c>
+      <c r="H37">
+        <v>64.830001831054602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1539611950.6269701</v>
       </c>
@@ -3495,8 +5875,20 @@
       <c r="D38">
         <v>71.559997558593693</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>70.629997253417898</v>
+      </c>
+      <c r="F38">
+        <v>71.050003051757798</v>
+      </c>
+      <c r="G38">
+        <v>65.739997863769503</v>
+      </c>
+      <c r="H38">
+        <v>65.879997253417898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1539612124.8232601</v>
       </c>
@@ -3509,8 +5901,20 @@
       <c r="D39">
         <v>72.430000305175696</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>70.269996643066406</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>65.669998168945298</v>
+      </c>
+      <c r="H39">
+        <v>64.190002441406193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1539612299.1342199</v>
       </c>
@@ -3523,8 +5927,20 @@
       <c r="D40">
         <v>72.180000305175696</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>70.279998779296804</v>
+      </c>
+      <c r="F40">
+        <v>69.699996948242102</v>
+      </c>
+      <c r="G40">
+        <v>65.540000915527301</v>
+      </c>
+      <c r="H40">
+        <v>65.730003356933594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1539612473.9558799</v>
       </c>
@@ -3537,8 +5953,20 @@
       <c r="D41">
         <v>72.040000915527301</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>70.680000305175696</v>
+      </c>
+      <c r="F41">
+        <v>70.690002441406193</v>
+      </c>
+      <c r="G41">
+        <v>65.550003051757798</v>
+      </c>
+      <c r="H41">
+        <v>67.010002136230398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1539612640.1886201</v>
       </c>
@@ -3551,8 +5979,20 @@
       <c r="D42">
         <v>71.489997863769503</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>71.169998168945298</v>
+      </c>
+      <c r="F42">
+        <v>69.730003356933594</v>
+      </c>
+      <c r="G42">
+        <v>65.370002746582003</v>
+      </c>
+      <c r="H42">
+        <v>66.459999084472599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1539612803.0889499</v>
       </c>
@@ -3565,8 +6005,20 @@
       <c r="D43">
         <v>72.410003662109304</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>70.220001220703097</v>
+      </c>
+      <c r="F43">
+        <v>71.239997863769503</v>
+      </c>
+      <c r="G43">
+        <v>65.940002441406193</v>
+      </c>
+      <c r="H43">
+        <v>65.569999694824205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1539612966.2830901</v>
       </c>
@@ -3579,8 +6031,20 @@
       <c r="D44">
         <v>71.489997863769503</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>70.629997253417898</v>
+      </c>
+      <c r="F44">
+        <v>71.019996643066406</v>
+      </c>
+      <c r="G44">
+        <v>66.730003356933594</v>
+      </c>
+      <c r="H44">
+        <v>66.169998168945298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1539613129.32897</v>
       </c>
@@ -3593,8 +6057,20 @@
       <c r="D45">
         <v>71.339996337890597</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>70.629997253417898</v>
+      </c>
+      <c r="F45">
+        <v>70.870002746582003</v>
+      </c>
+      <c r="G45">
+        <v>66.169998168945298</v>
+      </c>
+      <c r="H45">
+        <v>67.059997558593693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1539613292.43437</v>
       </c>
@@ -3607,8 +6083,20 @@
       <c r="D46">
         <v>72.860000610351506</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>72.019996643066406</v>
+      </c>
+      <c r="F46">
+        <v>71.010002136230398</v>
+      </c>
+      <c r="G46">
+        <v>66.629997253417898</v>
+      </c>
+      <c r="H46">
+        <v>67.569999694824205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1539613455.2170899</v>
       </c>
@@ -3621,8 +6109,20 @@
       <c r="D47">
         <v>72.040000915527301</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>71.779998779296804</v>
+      </c>
+      <c r="F47">
+        <v>70.129997253417898</v>
+      </c>
+      <c r="G47">
+        <v>66.779998779296804</v>
+      </c>
+      <c r="H47">
+        <v>66.860000610351506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1539613618.49594</v>
       </c>
@@ -3635,8 +6135,20 @@
       <c r="D48">
         <v>72.110000610351506</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>71.419998168945298</v>
+      </c>
+      <c r="F48">
+        <v>70.790000915527301</v>
+      </c>
+      <c r="G48">
+        <v>67.080001831054602</v>
+      </c>
+      <c r="H48">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1539613782.1301701</v>
       </c>
@@ -3649,8 +6161,20 @@
       <c r="D49">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>71.480003356933594</v>
+      </c>
+      <c r="F49">
+        <v>71.430000305175696</v>
+      </c>
+      <c r="G49">
+        <v>67.400001525878906</v>
+      </c>
+      <c r="H49">
+        <v>67.529998779296804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1539613945.76455</v>
       </c>
@@ -3663,8 +6187,20 @@
       <c r="D50">
         <v>72.319999694824205</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>71.319999694824205</v>
+      </c>
+      <c r="F50">
+        <v>70.559997558593693</v>
+      </c>
+      <c r="G50">
+        <v>66.949996948242102</v>
+      </c>
+      <c r="H50">
+        <v>67.569999694824205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1539614109.80356</v>
       </c>
@@ -3677,8 +6213,20 @@
       <c r="D51">
         <v>72.389999389648395</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>71.690002441406193</v>
+      </c>
+      <c r="F51">
+        <v>70.610000610351506</v>
+      </c>
+      <c r="G51">
+        <v>67.709999084472599</v>
+      </c>
+      <c r="H51">
+        <v>67.029998779296804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1539614273.0871699</v>
       </c>
@@ -3691,8 +6239,20 @@
       <c r="D52">
         <v>71.809997558593693</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>71.769996643066406</v>
+      </c>
+      <c r="F52">
+        <v>70.069999694824205</v>
+      </c>
+      <c r="G52">
+        <v>67.669998168945298</v>
+      </c>
+      <c r="H52">
+        <v>67.529998779296804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1539614437.1558199</v>
       </c>
@@ -3705,8 +6265,20 @@
       <c r="D53">
         <v>71.849998474121094</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>71.290000915527301</v>
+      </c>
+      <c r="F53">
+        <v>70.900001525878906</v>
+      </c>
+      <c r="G53">
+        <v>67.110000610351506</v>
+      </c>
+      <c r="H53">
+        <v>67.690002441406193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1539614602.63116</v>
       </c>
@@ -3719,8 +6291,20 @@
       <c r="D54">
         <v>72.849998474121094</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>70.580001831054602</v>
+      </c>
+      <c r="F54">
+        <v>70.839996337890597</v>
+      </c>
+      <c r="G54">
+        <v>67.319999694824205</v>
+      </c>
+      <c r="H54">
+        <v>67.610000610351506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1539614769.15658</v>
       </c>
@@ -3733,8 +6317,20 @@
       <c r="D55">
         <v>73.010002136230398</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>71.949996948242102</v>
+      </c>
+      <c r="F55">
+        <v>70.860000610351506</v>
+      </c>
+      <c r="G55">
+        <v>67.75</v>
+      </c>
+      <c r="H55">
+        <v>67.540000915527301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1539614936.2913499</v>
       </c>
@@ -3747,8 +6343,20 @@
       <c r="D56">
         <v>73.260002136230398</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>71.180000305175696</v>
+      </c>
+      <c r="F56">
+        <v>71.269996643066406</v>
+      </c>
+      <c r="G56">
+        <v>67.930000305175696</v>
+      </c>
+      <c r="H56">
+        <v>66.360000610351506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1539615104.15119</v>
       </c>
@@ -3761,8 +6369,20 @@
       <c r="D57">
         <v>73.290000915527301</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>70.830001831054602</v>
+      </c>
+      <c r="F57">
+        <v>71.209999084472599</v>
+      </c>
+      <c r="G57">
+        <v>67.580001831054602</v>
+      </c>
+      <c r="H57">
+        <v>68.139999389648395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1539615271.4934101</v>
       </c>
@@ -3775,8 +6395,20 @@
       <c r="D58">
         <v>73.379997253417898</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>70.660003662109304</v>
+      </c>
+      <c r="F58">
+        <v>71.360000610351506</v>
+      </c>
+      <c r="G58">
+        <v>67.370002746582003</v>
+      </c>
+      <c r="H58">
+        <v>66.629997253417898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1539615437.53158</v>
       </c>
@@ -3789,8 +6421,20 @@
       <c r="D59">
         <v>73.440002441406193</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>71.639999389648395</v>
+      </c>
+      <c r="F59">
+        <v>71.629997253417898</v>
+      </c>
+      <c r="G59">
+        <v>67.589996337890597</v>
+      </c>
+      <c r="H59">
+        <v>67.550003051757798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1539615605.2543499</v>
       </c>
@@ -3803,8 +6447,20 @@
       <c r="D60">
         <v>73.440002441406193</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>71.940002441406193</v>
+      </c>
+      <c r="F60">
+        <v>71.339996337890597</v>
+      </c>
+      <c r="G60">
+        <v>67.730003356933594</v>
+      </c>
+      <c r="H60">
+        <v>68.419998168945298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1539615772.5336201</v>
       </c>
@@ -3817,8 +6473,20 @@
       <c r="D61">
         <v>73.440002441406193</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>71.669998168945298</v>
+      </c>
+      <c r="F61">
+        <v>71.089996337890597</v>
+      </c>
+      <c r="G61">
+        <v>67.470001220703097</v>
+      </c>
+      <c r="H61">
+        <v>68.290000915527301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1539615937.8043301</v>
       </c>
@@ -3831,8 +6499,20 @@
       <c r="D62">
         <v>73.470001220703097</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>72.089996337890597</v>
+      </c>
+      <c r="F62">
+        <v>71.220001220703097</v>
+      </c>
+      <c r="G62">
+        <v>67.680000305175696</v>
+      </c>
+      <c r="H62">
+        <v>68.529998779296804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1539616104.62028</v>
       </c>
@@ -3845,8 +6525,20 @@
       <c r="D63">
         <v>73.519996643066406</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>71.889999389648395</v>
+      </c>
+      <c r="F63">
+        <v>70.959999084472599</v>
+      </c>
+      <c r="G63">
+        <v>68.099998474121094</v>
+      </c>
+      <c r="H63">
+        <v>68.900001525878906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1539616272.3111</v>
       </c>
@@ -3859,8 +6551,20 @@
       <c r="D64">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>70.989997863769503</v>
+      </c>
+      <c r="F64">
+        <v>71.519996643066406</v>
+      </c>
+      <c r="G64">
+        <v>67.589996337890597</v>
+      </c>
+      <c r="H64">
+        <v>68.529998779296804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1539616440.01156</v>
       </c>
@@ -3873,8 +6577,20 @@
       <c r="D65">
         <v>73.510002136230398</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>71.620002746582003</v>
+      </c>
+      <c r="F65">
+        <v>70.849998474121094</v>
+      </c>
+      <c r="G65">
+        <v>68.139999389648395</v>
+      </c>
+      <c r="H65">
+        <v>69.830001831054602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1539616593.7986801</v>
       </c>
@@ -3887,8 +6603,20 @@
       <c r="D66">
         <v>73.510002136230398</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>72.25</v>
+      </c>
+      <c r="F66">
+        <v>71.209999084472599</v>
+      </c>
+      <c r="G66">
+        <v>67.459999084472599</v>
+      </c>
+      <c r="H66">
+        <v>68.589996337890597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1539616747.76034</v>
       </c>
@@ -3901,8 +6629,20 @@
       <c r="D67">
         <v>73.510002136230398</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>70.949996948242102</v>
+      </c>
+      <c r="F67">
+        <v>70.980003356933594</v>
+      </c>
+      <c r="G67">
+        <v>67.919998168945298</v>
+      </c>
+      <c r="H67">
+        <v>69.050003051757798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1539616901.6580999</v>
       </c>
@@ -3915,8 +6655,20 @@
       <c r="D68">
         <v>73.510002136230398</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>71.839996337890597</v>
+      </c>
+      <c r="F68">
+        <v>71.739997863769503</v>
+      </c>
+      <c r="G68">
+        <v>68.620002746582003</v>
+      </c>
+      <c r="H68">
+        <v>67.230003356933594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1539617053.6879799</v>
       </c>
@@ -3929,8 +6681,20 @@
       <c r="D69">
         <v>73.510002136230398</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>71.650001525878906</v>
+      </c>
+      <c r="F69">
+        <v>71.25</v>
+      </c>
+      <c r="G69">
+        <v>68.650001525878906</v>
+      </c>
+      <c r="H69">
+        <v>67.050003051757798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1539617206.5822599</v>
       </c>
@@ -3943,8 +6707,20 @@
       <c r="D70">
         <v>73.550003051757798</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>72.169998168945298</v>
+      </c>
+      <c r="F70">
+        <v>71.5</v>
+      </c>
+      <c r="G70">
+        <v>68.860000610351506</v>
+      </c>
+      <c r="H70">
+        <v>68.099998474121094</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1539617359.0844901</v>
       </c>
@@ -3956,6 +6732,15 @@
       </c>
       <c r="D71">
         <v>73.550003051757798</v>
+      </c>
+      <c r="E71">
+        <v>72.279998779296804</v>
+      </c>
+      <c r="F71">
+        <v>71.860000610351506</v>
+      </c>
+      <c r="G71">
+        <v>69.230003356933594</v>
       </c>
     </row>
   </sheetData>
